--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.6117507239938</v>
+        <v>30.003349</v>
       </c>
       <c r="H2">
-        <v>29.6117507239938</v>
+        <v>60.006698</v>
       </c>
       <c r="I2">
-        <v>0.184183155170434</v>
+        <v>0.1788086146751209</v>
       </c>
       <c r="J2">
-        <v>0.184183155170434</v>
+        <v>0.1319456513375379</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.139495134882905</v>
+        <v>0.149141</v>
       </c>
       <c r="N2">
-        <v>0.139495134882905</v>
+        <v>0.298282</v>
       </c>
       <c r="O2">
-        <v>0.04896015200905932</v>
+        <v>0.0495228742909193</v>
       </c>
       <c r="P2">
-        <v>0.04896015200905932</v>
+        <v>0.03523714386836697</v>
       </c>
       <c r="Q2">
-        <v>4.130695161362475</v>
+        <v>4.474729473209</v>
       </c>
       <c r="R2">
-        <v>4.130695161362475</v>
+        <v>17.898917892836</v>
       </c>
       <c r="S2">
-        <v>0.009017635274652609</v>
+        <v>0.008855116546689438</v>
       </c>
       <c r="T2">
-        <v>0.009017635274652609</v>
+        <v>0.004649387898986211</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.6117507239938</v>
+        <v>30.003349</v>
       </c>
       <c r="H3">
-        <v>29.6117507239938</v>
+        <v>60.006698</v>
       </c>
       <c r="I3">
-        <v>0.184183155170434</v>
+        <v>0.1788086146751209</v>
       </c>
       <c r="J3">
-        <v>0.184183155170434</v>
+        <v>0.1319456513375379</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.29628390398974</v>
+        <v>2.394597333333333</v>
       </c>
       <c r="N3">
-        <v>2.29628390398974</v>
+        <v>7.183792</v>
       </c>
       <c r="O3">
-        <v>0.8059521867172414</v>
+        <v>0.7951357622386686</v>
       </c>
       <c r="P3">
-        <v>0.8059521867172414</v>
+        <v>0.8486476295063856</v>
       </c>
       <c r="Q3">
-        <v>67.99698655646348</v>
+        <v>71.84593950646934</v>
       </c>
       <c r="R3">
-        <v>67.99698655646348</v>
+        <v>431.075637038816</v>
       </c>
       <c r="S3">
-        <v>0.1484428166660923</v>
+        <v>0.1421771241245426</v>
       </c>
       <c r="T3">
-        <v>0.1484428166660923</v>
+        <v>0.1119753642312776</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.6117507239938</v>
+        <v>30.003349</v>
       </c>
       <c r="H4">
-        <v>29.6117507239938</v>
+        <v>60.006698</v>
       </c>
       <c r="I4">
-        <v>0.184183155170434</v>
+        <v>0.1788086146751209</v>
       </c>
       <c r="J4">
-        <v>0.184183155170434</v>
+        <v>0.1319456513375379</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.413377451840325</v>
+        <v>0.047275</v>
       </c>
       <c r="N4">
-        <v>0.413377451840325</v>
+        <v>0.141825</v>
       </c>
       <c r="O4">
-        <v>0.1450876612736993</v>
+        <v>0.01569785560042651</v>
       </c>
       <c r="P4">
-        <v>0.1450876612736993</v>
+        <v>0.0167543060899791</v>
       </c>
       <c r="Q4">
-        <v>12.24083005881546</v>
+        <v>1.418408323975</v>
       </c>
       <c r="R4">
-        <v>12.24083005881546</v>
+        <v>8.51044994385</v>
       </c>
       <c r="S4">
-        <v>0.02672270322968912</v>
+        <v>0.002806911813282352</v>
       </c>
       <c r="T4">
-        <v>0.02672270322968912</v>
+        <v>0.002210657829750771</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.8276598092669</v>
+        <v>30.003349</v>
       </c>
       <c r="H5">
-        <v>61.8276598092669</v>
+        <v>60.006698</v>
       </c>
       <c r="I5">
-        <v>0.3845640052362004</v>
+        <v>0.1788086146751209</v>
       </c>
       <c r="J5">
-        <v>0.3845640052362004</v>
+        <v>0.1319456513375379</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.139495134882905</v>
+        <v>0.4205445</v>
       </c>
       <c r="N5">
-        <v>0.139495134882905</v>
+        <v>0.841089</v>
       </c>
       <c r="O5">
-        <v>0.04896015200905932</v>
+        <v>0.1396435078699855</v>
       </c>
       <c r="P5">
-        <v>0.04896015200905932</v>
+        <v>0.09936092053526834</v>
       </c>
       <c r="Q5">
-        <v>8.624657744588049</v>
+        <v>12.6177434035305</v>
       </c>
       <c r="R5">
-        <v>8.624657744588049</v>
+        <v>50.470973614122</v>
       </c>
       <c r="S5">
-        <v>0.01882831215357705</v>
+        <v>0.02496946219060645</v>
       </c>
       <c r="T5">
-        <v>0.01882831215357705</v>
+        <v>0.01311024137752333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.8276598092669</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H6">
-        <v>61.8276598092669</v>
+        <v>196.916633</v>
       </c>
       <c r="I6">
-        <v>0.3845640052362004</v>
+        <v>0.3911828904302115</v>
       </c>
       <c r="J6">
-        <v>0.3845640052362004</v>
+        <v>0.4329898872352535</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.29628390398974</v>
+        <v>0.149141</v>
       </c>
       <c r="N6">
-        <v>2.29628390398974</v>
+        <v>0.298282</v>
       </c>
       <c r="O6">
-        <v>0.8059521867172414</v>
+        <v>0.0495228742909193</v>
       </c>
       <c r="P6">
-        <v>0.8059521867172414</v>
+        <v>0.03523714386836697</v>
       </c>
       <c r="Q6">
-        <v>141.9738600413729</v>
+        <v>9.789447854084335</v>
       </c>
       <c r="R6">
-        <v>141.9738600413729</v>
+        <v>58.73668712450601</v>
       </c>
       <c r="S6">
-        <v>0.3099402009528564</v>
+        <v>0.01937250110753383</v>
       </c>
       <c r="T6">
-        <v>0.3099402009528564</v>
+        <v>0.01525732695005662</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.8276598092669</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H7">
-        <v>61.8276598092669</v>
+        <v>196.916633</v>
       </c>
       <c r="I7">
-        <v>0.3845640052362004</v>
+        <v>0.3911828904302115</v>
       </c>
       <c r="J7">
-        <v>0.3845640052362004</v>
+        <v>0.4329898872352535</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.413377451840325</v>
+        <v>2.394597333333333</v>
       </c>
       <c r="N7">
-        <v>0.413377451840325</v>
+        <v>7.183792</v>
       </c>
       <c r="O7">
-        <v>0.1450876612736993</v>
+        <v>0.7951357622386686</v>
       </c>
       <c r="P7">
-        <v>0.1450876612736993</v>
+        <v>0.8486476295063856</v>
       </c>
       <c r="Q7">
-        <v>25.55816046520522</v>
+        <v>157.1786814235929</v>
       </c>
       <c r="R7">
-        <v>25.55816046520522</v>
+        <v>1414.608132812336</v>
       </c>
       <c r="S7">
-        <v>0.05579549212976695</v>
+        <v>0.3110435057569518</v>
       </c>
       <c r="T7">
-        <v>0.05579549212976695</v>
+        <v>0.3674558414024351</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.711582093498</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H8">
-        <v>12.711582093498</v>
+        <v>196.916633</v>
       </c>
       <c r="I8">
-        <v>0.07906521026098527</v>
+        <v>0.3911828904302115</v>
       </c>
       <c r="J8">
-        <v>0.07906521026098527</v>
+        <v>0.4329898872352535</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.139495134882905</v>
+        <v>0.047275</v>
       </c>
       <c r="N8">
-        <v>0.139495134882905</v>
+        <v>0.141825</v>
       </c>
       <c r="O8">
-        <v>0.04896015200905932</v>
+        <v>0.01569785560042651</v>
       </c>
       <c r="P8">
-        <v>0.04896015200905932</v>
+        <v>0.0167543060899791</v>
       </c>
       <c r="Q8">
-        <v>1.773203858707623</v>
+        <v>3.103077941691667</v>
       </c>
       <c r="R8">
-        <v>1.773203858707623</v>
+        <v>27.927701475225</v>
       </c>
       <c r="S8">
-        <v>0.003871044713006075</v>
+        <v>0.006140732527330927</v>
       </c>
       <c r="T8">
-        <v>0.003871044713006075</v>
+        <v>0.007254445104604971</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.711582093498</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H9">
-        <v>12.711582093498</v>
+        <v>196.916633</v>
       </c>
       <c r="I9">
-        <v>0.07906521026098527</v>
+        <v>0.3911828904302115</v>
       </c>
       <c r="J9">
-        <v>0.07906521026098527</v>
+        <v>0.4329898872352535</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.29628390398974</v>
+        <v>0.4205445</v>
       </c>
       <c r="N9">
-        <v>2.29628390398974</v>
+        <v>0.841089</v>
       </c>
       <c r="O9">
-        <v>0.8059521867172414</v>
+        <v>0.1396435078699855</v>
       </c>
       <c r="P9">
-        <v>0.8059521867172414</v>
+        <v>0.09936092053526834</v>
       </c>
       <c r="Q9">
-        <v>29.18940135554366</v>
+        <v>27.6040689888895</v>
       </c>
       <c r="R9">
-        <v>29.18940135554366</v>
+        <v>165.624413933337</v>
       </c>
       <c r="S9">
-        <v>0.06372277910309955</v>
+        <v>0.05462615103839493</v>
       </c>
       <c r="T9">
-        <v>0.06372277910309955</v>
+        <v>0.04302227377815682</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.711582093498</v>
+        <v>13.43183266666667</v>
       </c>
       <c r="H10">
-        <v>12.711582093498</v>
+        <v>40.295498</v>
       </c>
       <c r="I10">
-        <v>0.07906521026098527</v>
+        <v>0.0800486436255733</v>
       </c>
       <c r="J10">
-        <v>0.07906521026098527</v>
+        <v>0.08860370436614352</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.413377451840325</v>
+        <v>0.149141</v>
       </c>
       <c r="N10">
-        <v>0.413377451840325</v>
+        <v>0.298282</v>
       </c>
       <c r="O10">
-        <v>0.1450876612736993</v>
+        <v>0.0495228742909193</v>
       </c>
       <c r="P10">
-        <v>0.1450876612736993</v>
+        <v>0.03523714386836697</v>
       </c>
       <c r="Q10">
-        <v>5.254681414669307</v>
+        <v>2.003236955739333</v>
       </c>
       <c r="R10">
-        <v>5.254681414669307</v>
+        <v>12.019421734436</v>
       </c>
       <c r="S10">
-        <v>0.01147138644487964</v>
+        <v>0.003964238915427866</v>
       </c>
       <c r="T10">
-        <v>0.01147138644487964</v>
+        <v>0.003122141478020054</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.2713144970747</v>
+        <v>13.43183266666667</v>
       </c>
       <c r="H11">
-        <v>16.2713144970747</v>
+        <v>40.295498</v>
       </c>
       <c r="I11">
-        <v>0.1012065132783018</v>
+        <v>0.0800486436255733</v>
       </c>
       <c r="J11">
-        <v>0.1012065132783018</v>
+        <v>0.08860370436614352</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.139495134882905</v>
+        <v>2.394597333333333</v>
       </c>
       <c r="N11">
-        <v>0.139495134882905</v>
+        <v>7.183792</v>
       </c>
       <c r="O11">
-        <v>0.04896015200905932</v>
+        <v>0.7951357622386686</v>
       </c>
       <c r="P11">
-        <v>0.04896015200905932</v>
+        <v>0.8486476295063856</v>
       </c>
       <c r="Q11">
-        <v>2.269769210491603</v>
+        <v>32.16383068537956</v>
       </c>
       <c r="R11">
-        <v>2.269769210491603</v>
+        <v>289.474476168416</v>
       </c>
       <c r="S11">
-        <v>0.004955086274412538</v>
+        <v>0.06364953926539177</v>
       </c>
       <c r="T11">
-        <v>0.004955086274412538</v>
+        <v>0.07519332367581229</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.2713144970747</v>
+        <v>13.43183266666667</v>
       </c>
       <c r="H12">
-        <v>16.2713144970747</v>
+        <v>40.295498</v>
       </c>
       <c r="I12">
-        <v>0.1012065132783018</v>
+        <v>0.0800486436255733</v>
       </c>
       <c r="J12">
-        <v>0.1012065132783018</v>
+        <v>0.08860370436614352</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.29628390398974</v>
+        <v>0.047275</v>
       </c>
       <c r="N12">
-        <v>2.29628390398974</v>
+        <v>0.141825</v>
       </c>
       <c r="O12">
-        <v>0.8059521867172414</v>
+        <v>0.01569785560042651</v>
       </c>
       <c r="P12">
-        <v>0.8059521867172414</v>
+        <v>0.0167543060899791</v>
       </c>
       <c r="Q12">
-        <v>37.36355757638754</v>
+        <v>0.6349898893166668</v>
       </c>
       <c r="R12">
-        <v>37.36355757638754</v>
+        <v>5.714909003850001</v>
       </c>
       <c r="S12">
-        <v>0.0815676106866749</v>
+        <v>0.001256592048644252</v>
       </c>
       <c r="T12">
-        <v>0.0815676106866749</v>
+        <v>0.001484493583656386</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.2713144970747</v>
+        <v>13.43183266666667</v>
       </c>
       <c r="H13">
-        <v>16.2713144970747</v>
+        <v>40.295498</v>
       </c>
       <c r="I13">
-        <v>0.1012065132783018</v>
+        <v>0.0800486436255733</v>
       </c>
       <c r="J13">
-        <v>0.1012065132783018</v>
+        <v>0.08860370436614352</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.413377451840325</v>
+        <v>0.4205445</v>
       </c>
       <c r="N13">
-        <v>0.413377451840325</v>
+        <v>0.841089</v>
       </c>
       <c r="O13">
-        <v>0.1450876612736993</v>
+        <v>0.1396435078699855</v>
       </c>
       <c r="P13">
-        <v>0.1450876612736993</v>
+        <v>0.09936092053526834</v>
       </c>
       <c r="Q13">
-        <v>6.72619452489328</v>
+        <v>5.648683352887</v>
       </c>
       <c r="R13">
-        <v>6.72619452489328</v>
+        <v>33.892100117322</v>
       </c>
       <c r="S13">
-        <v>0.0146838163172144</v>
+        <v>0.01117827339610941</v>
       </c>
       <c r="T13">
-        <v>0.0146838163172144</v>
+        <v>0.008803745628654795</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>22.012882018774</v>
+        <v>16.42760466666667</v>
       </c>
       <c r="H14">
-        <v>22.012882018774</v>
+        <v>49.282814</v>
       </c>
       <c r="I14">
-        <v>0.1369186882060002</v>
+        <v>0.09790231193448497</v>
       </c>
       <c r="J14">
-        <v>0.1369186882060002</v>
+        <v>0.108365452686244</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.139495134882905</v>
+        <v>0.149141</v>
       </c>
       <c r="N14">
-        <v>0.139495134882905</v>
+        <v>0.298282</v>
       </c>
       <c r="O14">
-        <v>0.04896015200905932</v>
+        <v>0.0495228742909193</v>
       </c>
       <c r="P14">
-        <v>0.04896015200905932</v>
+        <v>0.03523714386836697</v>
       </c>
       <c r="Q14">
-        <v>3.070689946370353</v>
+        <v>2.450029387591333</v>
       </c>
       <c r="R14">
-        <v>3.070689946370353</v>
+        <v>14.700176325548</v>
       </c>
       <c r="S14">
-        <v>0.006703559787446768</v>
+        <v>0.004848403886721868</v>
       </c>
       <c r="T14">
-        <v>0.006703559787446768</v>
+        <v>0.003818489046665894</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,181 +1343,181 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>22.012882018774</v>
+        <v>16.42760466666667</v>
       </c>
       <c r="H15">
-        <v>22.012882018774</v>
+        <v>49.282814</v>
       </c>
       <c r="I15">
-        <v>0.1369186882060002</v>
+        <v>0.09790231193448497</v>
       </c>
       <c r="J15">
-        <v>0.1369186882060002</v>
+        <v>0.108365452686244</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.29628390398974</v>
+        <v>2.394597333333333</v>
       </c>
       <c r="N15">
-        <v>2.29628390398974</v>
+        <v>7.183792</v>
       </c>
       <c r="O15">
-        <v>0.8059521867172414</v>
+        <v>0.7951357622386686</v>
       </c>
       <c r="P15">
-        <v>0.8059521867172414</v>
+        <v>0.8486476295063856</v>
       </c>
       <c r="Q15">
-        <v>50.5478266601359</v>
+        <v>39.33749832785423</v>
       </c>
       <c r="R15">
-        <v>50.5478266601359</v>
+        <v>354.0374849506881</v>
       </c>
       <c r="S15">
-        <v>0.1103499161620821</v>
+        <v>0.0778456294249546</v>
       </c>
       <c r="T15">
-        <v>0.1103499161620821</v>
+        <v>0.09196408454256735</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>22.012882018774</v>
+        <v>16.42760466666667</v>
       </c>
       <c r="H16">
-        <v>22.012882018774</v>
+        <v>49.282814</v>
       </c>
       <c r="I16">
-        <v>0.1369186882060002</v>
+        <v>0.09790231193448497</v>
       </c>
       <c r="J16">
-        <v>0.1369186882060002</v>
+        <v>0.108365452686244</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.413377451840325</v>
+        <v>0.047275</v>
       </c>
       <c r="N16">
-        <v>0.413377451840325</v>
+        <v>0.141825</v>
       </c>
       <c r="O16">
-        <v>0.1450876612736993</v>
+        <v>0.01569785560042651</v>
       </c>
       <c r="P16">
-        <v>0.1450876612736993</v>
+        <v>0.0167543060899791</v>
       </c>
       <c r="Q16">
-        <v>9.099629076582506</v>
+        <v>0.7766150106166668</v>
       </c>
       <c r="R16">
-        <v>9.099629076582506</v>
+        <v>6.989535095550001</v>
       </c>
       <c r="S16">
-        <v>0.0198652122564714</v>
+        <v>0.001536856355695458</v>
       </c>
       <c r="T16">
-        <v>0.0198652122564714</v>
+        <v>0.00181558796388448</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.3382034979549</v>
+        <v>16.42760466666667</v>
       </c>
       <c r="H17">
-        <v>18.3382034979549</v>
+        <v>49.282814</v>
       </c>
       <c r="I17">
-        <v>0.1140624278480783</v>
+        <v>0.09790231193448497</v>
       </c>
       <c r="J17">
-        <v>0.1140624278480783</v>
+        <v>0.108365452686244</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.139495134882905</v>
+        <v>0.4205445</v>
       </c>
       <c r="N17">
-        <v>0.139495134882905</v>
+        <v>0.841089</v>
       </c>
       <c r="O17">
-        <v>0.04896015200905932</v>
+        <v>0.1396435078699855</v>
       </c>
       <c r="P17">
-        <v>0.04896015200905932</v>
+        <v>0.09936092053526834</v>
       </c>
       <c r="Q17">
-        <v>2.558090170457379</v>
+        <v>6.908538790741</v>
       </c>
       <c r="R17">
-        <v>2.558090170457379</v>
+        <v>41.451232744446</v>
       </c>
       <c r="S17">
-        <v>0.005584513805964275</v>
+        <v>0.01367142226711303</v>
       </c>
       <c r="T17">
-        <v>0.005584513805964275</v>
+        <v>0.01076729113312627</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.3382034979549</v>
+        <v>23.69336933333333</v>
       </c>
       <c r="H18">
-        <v>18.3382034979549</v>
+        <v>71.080108</v>
       </c>
       <c r="I18">
-        <v>0.1140624278480783</v>
+        <v>0.1412035218961498</v>
       </c>
       <c r="J18">
-        <v>0.1140624278480783</v>
+        <v>0.1562944047879878</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.29628390398974</v>
+        <v>0.149141</v>
       </c>
       <c r="N18">
-        <v>2.29628390398974</v>
+        <v>0.298282</v>
       </c>
       <c r="O18">
-        <v>0.8059521867172414</v>
+        <v>0.0495228742909193</v>
       </c>
       <c r="P18">
-        <v>0.8059521867172414</v>
+        <v>0.03523714386836697</v>
       </c>
       <c r="Q18">
-        <v>42.10972152044218</v>
+        <v>3.533652795742666</v>
       </c>
       <c r="R18">
-        <v>42.10972152044218</v>
+        <v>21.201916774456</v>
       </c>
       <c r="S18">
-        <v>0.09192886314643629</v>
+        <v>0.0069928042642981</v>
       </c>
       <c r="T18">
-        <v>0.09192886314643629</v>
+        <v>0.00550736842733511</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>23.69336933333333</v>
+      </c>
+      <c r="H19">
+        <v>71.080108</v>
+      </c>
+      <c r="I19">
+        <v>0.1412035218961498</v>
+      </c>
+      <c r="J19">
+        <v>0.1562944047879878</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.394597333333333</v>
+      </c>
+      <c r="N19">
+        <v>7.183792</v>
+      </c>
+      <c r="O19">
+        <v>0.7951357622386686</v>
+      </c>
+      <c r="P19">
+        <v>0.8486476295063856</v>
+      </c>
+      <c r="Q19">
+        <v>56.73607902328178</v>
+      </c>
+      <c r="R19">
+        <v>510.624711209536</v>
+      </c>
+      <c r="S19">
+        <v>0.1122759700136796</v>
+      </c>
+      <c r="T19">
+        <v>0.1326388761284373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>23.69336933333333</v>
+      </c>
+      <c r="H20">
+        <v>71.080108</v>
+      </c>
+      <c r="I20">
+        <v>0.1412035218961498</v>
+      </c>
+      <c r="J20">
+        <v>0.1562944047879878</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.047275</v>
+      </c>
+      <c r="N20">
+        <v>0.141825</v>
+      </c>
+      <c r="O20">
+        <v>0.01569785560042651</v>
+      </c>
+      <c r="P20">
+        <v>0.0167543060899791</v>
+      </c>
+      <c r="Q20">
+        <v>1.120104035233333</v>
+      </c>
+      <c r="R20">
+        <v>10.0809363171</v>
+      </c>
+      <c r="S20">
+        <v>0.002216592496997423</v>
+      </c>
+      <c r="T20">
+        <v>0.002618604297969043</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>23.69336933333333</v>
+      </c>
+      <c r="H21">
+        <v>71.080108</v>
+      </c>
+      <c r="I21">
+        <v>0.1412035218961498</v>
+      </c>
+      <c r="J21">
+        <v>0.1562944047879878</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4205445</v>
+      </c>
+      <c r="N21">
+        <v>0.841089</v>
+      </c>
+      <c r="O21">
+        <v>0.1396435078699855</v>
+      </c>
+      <c r="P21">
+        <v>0.09936092053526834</v>
+      </c>
+      <c r="Q21">
+        <v>9.964116159602</v>
+      </c>
+      <c r="R21">
+        <v>59.78469695761199</v>
+      </c>
+      <c r="S21">
+        <v>0.01971815512117468</v>
+      </c>
+      <c r="T21">
+        <v>0.01552955593424632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>18.3382034979549</v>
-      </c>
-      <c r="H19">
-        <v>18.3382034979549</v>
-      </c>
-      <c r="I19">
-        <v>0.1140624278480783</v>
-      </c>
-      <c r="J19">
-        <v>0.1140624278480783</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.413377451840325</v>
-      </c>
-      <c r="N19">
-        <v>0.413377451840325</v>
-      </c>
-      <c r="O19">
-        <v>0.1450876612736993</v>
-      </c>
-      <c r="P19">
-        <v>0.1450876612736993</v>
-      </c>
-      <c r="Q19">
-        <v>7.580599833313931</v>
-      </c>
-      <c r="R19">
-        <v>7.580599833313931</v>
-      </c>
-      <c r="S19">
-        <v>0.01654905089567775</v>
-      </c>
-      <c r="T19">
-        <v>0.01654905089567775</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>18.6008475</v>
+      </c>
+      <c r="H22">
+        <v>37.201695</v>
+      </c>
+      <c r="I22">
+        <v>0.1108540174384595</v>
+      </c>
+      <c r="J22">
+        <v>0.08180089958683325</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.149141</v>
+      </c>
+      <c r="N22">
+        <v>0.298282</v>
+      </c>
+      <c r="O22">
+        <v>0.0495228742909193</v>
+      </c>
+      <c r="P22">
+        <v>0.03523714386836697</v>
+      </c>
+      <c r="Q22">
+        <v>2.7741489969975</v>
+      </c>
+      <c r="R22">
+        <v>11.09659598799</v>
+      </c>
+      <c r="S22">
+        <v>0.005489809570248205</v>
+      </c>
+      <c r="T22">
+        <v>0.002882430067303084</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>18.6008475</v>
+      </c>
+      <c r="H23">
+        <v>37.201695</v>
+      </c>
+      <c r="I23">
+        <v>0.1108540174384595</v>
+      </c>
+      <c r="J23">
+        <v>0.08180089958683325</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.394597333333333</v>
+      </c>
+      <c r="N23">
+        <v>7.183792</v>
+      </c>
+      <c r="O23">
+        <v>0.7951357622386686</v>
+      </c>
+      <c r="P23">
+        <v>0.8486476295063856</v>
+      </c>
+      <c r="Q23">
+        <v>44.54153982124</v>
+      </c>
+      <c r="R23">
+        <v>267.24923892744</v>
+      </c>
+      <c r="S23">
+        <v>0.08814399365314812</v>
+      </c>
+      <c r="T23">
+        <v>0.06942013952585591</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>18.6008475</v>
+      </c>
+      <c r="H24">
+        <v>37.201695</v>
+      </c>
+      <c r="I24">
+        <v>0.1108540174384595</v>
+      </c>
+      <c r="J24">
+        <v>0.08180089958683325</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.047275</v>
+      </c>
+      <c r="N24">
+        <v>0.141825</v>
+      </c>
+      <c r="O24">
+        <v>0.01569785560042651</v>
+      </c>
+      <c r="P24">
+        <v>0.0167543060899791</v>
+      </c>
+      <c r="Q24">
+        <v>0.8793550655625001</v>
+      </c>
+      <c r="R24">
+        <v>5.276130393375</v>
+      </c>
+      <c r="S24">
+        <v>0.001740170358476099</v>
+      </c>
+      <c r="T24">
+        <v>0.001370517310113449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>18.6008475</v>
+      </c>
+      <c r="H25">
+        <v>37.201695</v>
+      </c>
+      <c r="I25">
+        <v>0.1108540174384595</v>
+      </c>
+      <c r="J25">
+        <v>0.08180089958683325</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4205445</v>
+      </c>
+      <c r="N25">
+        <v>0.841089</v>
+      </c>
+      <c r="O25">
+        <v>0.1396435078699855</v>
+      </c>
+      <c r="P25">
+        <v>0.09936092053526834</v>
+      </c>
+      <c r="Q25">
+        <v>7.82248411146375</v>
+      </c>
+      <c r="R25">
+        <v>31.289936445855</v>
+      </c>
+      <c r="S25">
+        <v>0.01548004385658703</v>
+      </c>
+      <c r="T25">
+        <v>0.008127812683560802</v>
       </c>
     </row>
   </sheetData>
